--- a/Assets/StreamingAssets/6_Mei.xlsx
+++ b/Assets/StreamingAssets/6_Mei.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8592A0E-3B86-EF41-AC79-FA8AE4D54ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACCF1E8-6CDC-5846-B67F-1F82F7987154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="1200" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="700" yWindow="640" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="58">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,10 +167,6 @@
   </si>
   <si>
     <t>Mei-Sad3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mei-Sad1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -669,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -740,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -769,13 +765,16 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -786,13 +785,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -803,13 +805,16 @@
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -820,13 +825,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -837,13 +845,16 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -854,13 +865,16 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -871,13 +885,16 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -888,20 +905,23 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2">
         <v>500</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="17">
@@ -909,13 +929,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -926,13 +949,16 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -940,10 +966,13 @@
     </row>
     <row r="13" spans="1:16" ht="51">
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -951,10 +980,13 @@
     </row>
     <row r="14" spans="1:16" ht="34">
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -965,13 +997,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -982,13 +1017,16 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2">
@@ -1003,13 +1041,16 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1020,13 +1061,16 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1037,13 +1081,16 @@
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1054,13 +1101,16 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1071,13 +1121,16 @@
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1088,13 +1141,16 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1105,13 +1161,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1122,13 +1181,16 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1139,13 +1201,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1163,6 +1228,9 @@
       </c>
       <c r="D26" t="s">
         <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>14</v>

--- a/Assets/StreamingAssets/6_Mei.xlsx
+++ b/Assets/StreamingAssets/6_Mei.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACCF1E8-6CDC-5846-B67F-1F82F7987154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C6E40A-B2DD-2846-9CD2-142F0FE411DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="640" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="700" yWindow="540" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Assets/StreamingAssets/6_Mei.xlsx
+++ b/Assets/StreamingAssets/6_Mei.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C6E40A-B2DD-2846-9CD2-142F0FE411DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779CD5C0-0FA7-DF42-89F3-3F70CE5CCD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="540" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="700" yWindow="560" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,22 +194,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Every day during the You hour, the Lord would rest and enjoy tea in the study next to the main hall until dinnertime.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Today, the Lord had a heated argument with Ming. After comforting Ming, I returned to the main hall and saw the Lord taking a nap.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Around You zheng, I suddenly felt dizzy and nauseous, so I went to the study to inform the Lord that I wouldn’t be attending the banquet.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>After that, I returned to my room and rested until Steward He came to inform me that something had happened to the Lord.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>So your last encounter with the Lord was in the study?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,14 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cross-referencing with Steward He’s testimony, he last saw the Lord at the back courtyard entrance, which would have been after Mei's visit.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>His claim that Mei weren’t feeling well and that the Lord went to find the doctor is consistent.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Were you resting in your bed the entire time during the banquet?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,18 +218,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I was half-asleep, and it was raining heavily outside—I didn’t hear much.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I only know that Ming came to visit me once.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>But what’s strange is… I heard someone enter without knocking. I asked who it was, and Ming said it was him.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>After a while, he seemed to close the door and leave.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,7 +238,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I’m sorry… I truly can’t recall.</t>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(His claim that Mei weren’t feeling well and that the Lord went to find the doctor is consistent.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was bathing behind the screen at the time and didn’t hear anything unusual.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Around 6 PM, I suddenly felt dizzy and nauseous, so I went to the study to inform the Lord that I wouldn’t be attending the banquet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After that, I returned to my room and rested until Butler He came to inform me that something had happened to the Lord.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Cross-referencing with Butler He’s testimony, he last saw the Lord at the backyard entrance, which would have been after Mei's visit.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But what’s strange is......I heard someone enter without knocking. I asked who it was, and Ming said it was him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m sorry......I truly can’t recall.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Every day during 5-7 PM, the Lord would rest and enjoy tea in the study next to the main hall until dinnertime.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -840,12 +840,12 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="51">
+    <row r="7" spans="1:16" ht="34">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -865,7 +865,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -885,7 +885,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -905,7 +905,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -916,7 +916,9 @@
       <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K10" s="2">
         <v>500</v>
       </c>
@@ -929,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -949,7 +951,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -966,7 +968,7 @@
     </row>
     <row r="13" spans="1:16" ht="51">
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -978,9 +980,9 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="34">
+    <row r="14" spans="1:16" ht="51">
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -997,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1017,7 +1019,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -1028,7 +1030,9 @@
       <c r="E16" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K16" s="2">
         <v>500</v>
       </c>
@@ -1041,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -1061,7 +1065,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -1081,7 +1085,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -1101,7 +1105,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -1121,7 +1125,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -1141,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -1161,7 +1165,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
@@ -1181,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -1201,7 +1205,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
